--- a/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini.xlsx
+++ b/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini.xlsx
@@ -179,10 +179,10 @@
     <t>Core Java and SQL is going on</t>
   </si>
   <si>
-    <t>Spring Completed &amp; Starting BDD</t>
-  </si>
-  <si>
     <t>Java Full Stack (Pune-Mumbai)</t>
+  </si>
+  <si>
+    <t>BDD Continued</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
         <v>39</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>52</v>
@@ -1195,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>14</v>
